--- a/5-FuncoesMercadoTrabalho/14. Função CONT.SES - Uso com Um Critério - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/14. Função CONT.SES - Uso com Um Critério - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E79C64-1286-485D-968C-EE0DC01F6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E88D98-5FEC-48C9-821E-D6CC59E68AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="CONT.SES" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>Registro</t>
   </si>
@@ -569,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -609,7 +609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -715,7 +715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -867,16 +867,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>70</v>
       </c>
@@ -890,7 +890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -904,7 +904,7 @@
         <v>11555</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -918,7 +918,7 @@
         <v>23113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -932,7 +932,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -946,7 +946,7 @@
         <v>32635</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -960,7 +960,7 @@
         <v>22529</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -974,7 +974,7 @@
         <v>33740</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -988,7 +988,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>16756</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>24899</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>25086</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1081,23 +1081,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1142,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1173,9 +1175,12 @@
       <c r="E4" s="5">
         <v>42811</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <f>COUNTIFS(B:B, "Coordenador")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1224,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>42904</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1252,9 +1257,12 @@
       <c r="E8" s="5">
         <v>42925</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="7">
+        <f>COUNTIFS(E:E, "&gt;31/12/2018")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>42932</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1305,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>43112</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1330,9 +1338,12 @@
       <c r="E12" s="5">
         <v>43143</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="7">
+        <f>COUNTIFS(C:C, "Marketing", D:D, "&gt; 4000")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1386,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1408,9 +1419,12 @@
       <c r="E16" s="5">
         <v>43215</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="7">
+        <f>COUNTIFS(B:B, "Analista *")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1441,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1453,7 +1467,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1489,9 +1503,15 @@
       <c r="H20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="11">
+        <f>COUNTIFS(C:C, $J$20, B:B, H20)</f>
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1510,9 +1530,12 @@
       <c r="H21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <f t="shared" ref="I21:I24" si="0">COUNTIFS(C:C, $J$20, B:B, H21)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1531,9 +1554,12 @@
       <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1552,9 +1578,12 @@
       <c r="H23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -1573,9 +1602,12 @@
       <c r="H24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I24" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1624,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1641,7 @@
         <v>43487</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1626,7 +1658,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1675,7 @@
         <v>43547</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
@@ -1660,7 +1692,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1709,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1726,7 @@
         <v>43624</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1743,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1760,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1777,7 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1762,7 +1794,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1779,7 +1811,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
@@ -1796,7 +1828,7 @@
         <v>43758</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1845,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +1862,7 @@
         <v>43877</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1879,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1896,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1913,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -1915,7 +1947,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1964,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1949,7 +1981,7 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +1998,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +2015,7 @@
         <v>44128</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2032,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>

--- a/5-FuncoesMercadoTrabalho/14. Função CONT.SES - Uso com Um Critério - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/14. Função CONT.SES - Uso com Um Critério - Material(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E88D98-5FEC-48C9-821E-D6CC59E68AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802D4C1-222B-4E33-BFA9-95CC87805BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1081,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:I24" si="0">COUNTIFS(C:C, $J$20, B:B, H21)</f>
+        <f>COUNTIFS(C:C, $J$20, B:B, H21)</f>
         <v>4</v>
       </c>
     </row>
@@ -1555,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I21:I24" si="0">COUNTIFS(C:C, $J$20, B:B, H22)</f>
         <v>3</v>
       </c>
     </row>
